--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,9 +46,6 @@
     <t>useless</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -73,12 +70,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
@@ -88,226 +85,229 @@
     <t>pleased</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>glad</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>w</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>pan</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>fast</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
+    <t>big</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>wish</t>
+    <t>quality</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>hot</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
-    <t>little</t>
+    <t>really</t>
   </si>
   <si>
     <t>one</t>
@@ -316,31 +316,19 @@
     <t>like</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -701,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -770,13 +758,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -788,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>0.9655172413793104</v>
@@ -820,13 +808,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -838,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -862,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -870,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4716981132075472</v>
+        <v>0.4108527131782946</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -888,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8984375</v>
+        <v>0.921875</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -912,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -920,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4031007751937984</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -938,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8544891640866873</v>
+        <v>0.8606811145510835</v>
       </c>
       <c r="L6">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="M6">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -962,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -970,13 +958,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3434343434343434</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -988,95 +976,71 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.855072463768116</v>
+      </c>
+      <c r="L7">
+        <v>59</v>
+      </c>
+      <c r="M7">
+        <v>59</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>0.8478260869565217</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>39</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>39</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1513513513513514</v>
-      </c>
-      <c r="C8">
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>157</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>0.8115942028985508</v>
-      </c>
-      <c r="L8">
-        <v>56</v>
-      </c>
-      <c r="M8">
-        <v>56</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1088,21 +1052,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L10">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M10">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1114,21 +1078,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7012987012987013</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,21 +1104,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.6986301369863014</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L12">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="M12">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,21 +1130,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.6923076923076923</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,21 +1156,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,21 +1182,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6847457627118644</v>
+        <v>0.65625</v>
       </c>
       <c r="L15">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1244,21 +1208,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6500802568218299</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L16">
-        <v>810</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>810</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1270,21 +1234,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>436</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6338028169014085</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1301,16 +1265,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6285714285714286</v>
+        <v>0.6396468699839486</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>797</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>797</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1322,21 +1286,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6222222222222222</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1348,12 +1312,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
         <v>0.6153846153846154</v>
@@ -1379,16 +1343,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6142857142857143</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1400,21 +1364,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6078431372549019</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1426,15 +1390,15 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6029411764705882</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L23">
         <v>41</v>
@@ -1452,21 +1416,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5828571428571429</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L24">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1478,21 +1442,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5789473684210527</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L25">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1504,21 +1468,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5769230769230769</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L26">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1530,21 +1494,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5614035087719298</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1556,21 +1520,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5568862275449101</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="L28">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1582,21 +1546,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5555555555555556</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1608,21 +1572,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5510204081632653</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1634,21 +1598,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.5384615384615384</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1660,21 +1624,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.5128205128205128</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L32">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1686,21 +1650,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.5079365079365079</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1712,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.5060240963855421</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1738,21 +1702,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1764,21 +1728,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.4918032786885246</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1790,21 +1754,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37">
+        <v>0.49</v>
+      </c>
+      <c r="L37">
         <v>49</v>
       </c>
-      <c r="K37">
-        <v>0.4605263157894737</v>
-      </c>
-      <c r="L37">
-        <v>35</v>
-      </c>
       <c r="M37">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1816,21 +1780,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>0.46</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="L38">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1842,21 +1806,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>0.4567901234567901</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1868,21 +1832,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>0.4464285714285715</v>
+        <v>0.4518072289156627</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1894,21 +1858,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>0.4354838709677419</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1920,15 +1884,15 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>0.4285714285714285</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L42">
         <v>27</v>
@@ -1946,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K43">
-        <v>0.4264705882352941</v>
+        <v>0.4163424124513619</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1972,21 +1936,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>39</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>0.4210526315789473</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L44">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1998,21 +1962,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K45">
-        <v>0.4124513618677043</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="L45">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2024,21 +1988,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>151</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K46">
-        <v>0.4036144578313253</v>
+        <v>0.3970588235294117</v>
       </c>
       <c r="L46">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="M46">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2050,21 +2014,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>99</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K47">
-        <v>0.3823529411764706</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L47">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2076,21 +2040,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>252</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K48">
-        <v>0.3762376237623762</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="L48">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="M48">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2102,21 +2066,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K49">
-        <v>0.3690476190476191</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M49">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2128,41 +2092,41 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K50">
-        <v>0.3666666666666666</v>
+        <v>0.3734643734643734</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>38</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K51">
-        <v>0.3603603603603603</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L51">
         <v>40</v>
@@ -2180,21 +2144,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K52">
-        <v>0.3561643835616438</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="L52">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="M52">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2206,21 +2170,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>470</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K53">
-        <v>0.3458646616541353</v>
+        <v>0.3534246575342466</v>
       </c>
       <c r="L53">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="M53">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2232,21 +2196,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>87</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K54">
-        <v>0.3381294964028777</v>
+        <v>0.3453237410071943</v>
       </c>
       <c r="L54">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M54">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2258,21 +2222,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K55">
-        <v>0.3377483443708609</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="L55">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2284,21 +2248,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K56">
-        <v>0.3301435406698565</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L56">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2310,21 +2274,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>140</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K57">
-        <v>0.3148148148148148</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="L57">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2336,21 +2300,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K58">
-        <v>0.3055555555555556</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L58">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M58">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2362,21 +2326,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K59">
-        <v>0.2823529411764706</v>
+        <v>0.2913907284768212</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M59">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2388,47 +2352,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>61</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K60">
-        <v>0.2684563758389262</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L60">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M60">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K61">
-        <v>0.2594187298170075</v>
+        <v>0.2615715823466093</v>
       </c>
       <c r="L61">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M61">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2440,47 +2404,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K62">
-        <v>0.25</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L62">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M62">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K63">
-        <v>0.2342342342342342</v>
+        <v>0.2488038277511962</v>
       </c>
       <c r="L63">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="M63">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2492,21 +2456,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>85</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K64">
-        <v>0.2307692307692308</v>
+        <v>0.223841059602649</v>
       </c>
       <c r="L64">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="M64">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2518,21 +2482,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>90</v>
+        <v>586</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K65">
-        <v>0.2285714285714286</v>
+        <v>0.2237851662404092</v>
       </c>
       <c r="L65">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="M65">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2544,21 +2508,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>81</v>
+        <v>607</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K66">
-        <v>0.2278145695364238</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L66">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="M66">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2570,21 +2534,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>583</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K67">
-        <v>0.2250639386189258</v>
+        <v>0.2076923076923077</v>
       </c>
       <c r="L67">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="M67">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2596,21 +2560,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>606</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K68">
-        <v>0.2163009404388715</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L68">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M68">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2622,73 +2586,73 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K69">
-        <v>0.2134146341463415</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L69">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M69">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>129</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K70">
-        <v>0.1972972972972973</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="L70">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="M70">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="N70">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K71">
-        <v>0.1923076923076923</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L71">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2700,21 +2664,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K72">
-        <v>0.1732456140350877</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L72">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="M72">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2726,73 +2690,73 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>377</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K73">
-        <v>0.1694915254237288</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="L73">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="M73">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>147</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K74">
-        <v>0.1604938271604938</v>
+        <v>0.1670644391408115</v>
       </c>
       <c r="L74">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="M74">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="N74">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>136</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K75">
-        <v>0.1592592592592593</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L75">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="M75">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2804,21 +2768,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>227</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K76">
-        <v>0.1549815498154982</v>
+        <v>0.1656441717791411</v>
       </c>
       <c r="L76">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M76">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2830,73 +2794,73 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>229</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K77">
-        <v>0.1393939393939394</v>
+        <v>0.1635687732342007</v>
       </c>
       <c r="L77">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M77">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>142</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K78">
-        <v>0.1393643031784841</v>
+        <v>0.1576354679802956</v>
       </c>
       <c r="L78">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M78">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="N78">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>352</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K79">
-        <v>0.1379310344827586</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="L79">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M79">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2908,47 +2872,47 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>175</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K80">
-        <v>0.1352657004830918</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="L80">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M80">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="N80">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>179</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K81">
-        <v>0.1340909090909091</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L81">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="M81">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -2960,47 +2924,47 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>381</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K82">
-        <v>0.1288782816229117</v>
+        <v>0.1306818181818182</v>
       </c>
       <c r="L82">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="M82">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>365</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K83">
-        <v>0.1260504201680672</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L83">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M83">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3012,21 +2976,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K84">
-        <v>0.1209677419354839</v>
+        <v>0.1295454545454545</v>
       </c>
       <c r="L84">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="M84">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3038,21 +3002,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>218</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K85">
-        <v>0.1168384879725086</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L85">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M85">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3064,125 +3028,125 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>257</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K86">
-        <v>0.1021555763823805</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="L86">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="M86">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="N86">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>958</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K87">
-        <v>0.1005747126436782</v>
+        <v>0.09328358208955224</v>
       </c>
       <c r="L87">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M87">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="N87">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>626</v>
+        <v>972</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K88">
-        <v>0.09836065573770492</v>
+        <v>0.09051724137931035</v>
       </c>
       <c r="L88">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="M88">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>330</v>
+        <v>633</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K89">
-        <v>0.08487084870848709</v>
+        <v>0.07578558225508318</v>
       </c>
       <c r="L89">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M89">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N89">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O89">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>248</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K90">
-        <v>0.07888040712468193</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="L90">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M90">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N90">
         <v>0.97</v>
@@ -3194,163 +3158,85 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>362</v>
+        <v>385</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K91">
-        <v>0.07024029574861368</v>
+        <v>0.06615776081424936</v>
       </c>
       <c r="L91">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M91">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N91">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O91">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>503</v>
+        <v>367</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K92">
-        <v>0.06111111111111111</v>
+        <v>0.06513409961685823</v>
       </c>
       <c r="L92">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M92">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N92">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>338</v>
+        <v>488</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K93">
-        <v>0.05815972222222222</v>
+        <v>0.05117085862966175</v>
       </c>
       <c r="L93">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M93">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="N93">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O93">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="94" spans="10:17">
-      <c r="J94" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K94">
-        <v>0.0558252427184466</v>
-      </c>
-      <c r="L94">
-        <v>23</v>
-      </c>
-      <c r="M94">
-        <v>25</v>
-      </c>
-      <c r="N94">
-        <v>0.92</v>
-      </c>
-      <c r="O94">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P94" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q94">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="95" spans="10:17">
-      <c r="J95" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K95">
-        <v>0.05192307692307693</v>
-      </c>
-      <c r="L95">
-        <v>27</v>
-      </c>
-      <c r="M95">
-        <v>29</v>
-      </c>
-      <c r="N95">
-        <v>0.93</v>
-      </c>
-      <c r="O95">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P95" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="96" spans="10:17">
-      <c r="J96" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K96">
-        <v>0.03937007874015748</v>
-      </c>
-      <c r="L96">
-        <v>30</v>
-      </c>
-      <c r="M96">
-        <v>35</v>
-      </c>
-      <c r="N96">
-        <v>0.86</v>
-      </c>
-      <c r="O96">
-        <v>0.14</v>
-      </c>
-      <c r="P96" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q96">
-        <v>732</v>
+        <v>1094</v>
       </c>
     </row>
   </sheetData>
